--- a/附件1-1【实习生】实习生考勤表-时薪_张宇精 (copy).xlsx
+++ b/附件1-1【实习生】实习生考勤表-时薪_张宇精 (copy).xlsx
@@ -36,6 +36,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -54,6 +57,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -63,6 +67,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、姓名、主管、一级部门为必填项（二级部门工程、研究为必填）；每个时间段“开始”和“结束”时间为必填项
 </t>
@@ -73,6 +78,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -82,6 +88,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、实习生每月</t>
     </r>
@@ -91,6 +98,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">21</t>
     </r>
@@ -100,6 +108,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日通过邮件向其主管进行考勤确认，电子版考勤表须作为附件同时发送
 </t>
@@ -110,6 +119,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -119,6 +129,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、收到主管邮件确认后，实习生将该审批邮件及其附件电子版考勤表发送至考勤收集专用邮箱：
 研究中心实习生，发送至</t>
@@ -129,6 +140,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">att01@sensetime.com</t>
     </r>
@@ -138,6 +150,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；工程产品中心实习生，发送至</t>
     </r>
@@ -147,6 +160,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">att02@sensetime.com</t>
     </r>
@@ -156,6 +170,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；
 其它职能部门实习生，发送至</t>
@@ -166,6 +181,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">att03@sensetime.com</t>
     </r>
@@ -175,6 +191,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；香港实习生，发送至</t>
     </r>
@@ -184,6 +201,7 @@
         <color rgb="FF800000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">att04@sensetime.com</t>
     </r>
@@ -193,6 +211,7 @@
         <color rgb="FF800000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">；
 </t>
@@ -204,6 +223,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注：为避免薪资发放延误，务必于每月</t>
     </r>
@@ -214,6 +234,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">22</t>
     </r>
@@ -224,6 +245,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日</t>
     </r>
@@ -234,6 +256,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">19</t>
     </r>
@@ -244,6 +267,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">点前将审批邮件及电子版考勤表发送至专用邮箱，逾期将于次月发放薪资</t>
     </r>
@@ -304,6 +328,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -319,6 +344,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -334,6 +360,7 @@
         <color rgb="FFFFFFFF"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -366,6 +393,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -375,6 +403,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小时</t>
     </r>
@@ -392,6 +421,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -401,6 +431,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小时</t>
     </r>
@@ -415,6 +446,7 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -424,6 +456,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小时</t>
     </r>
@@ -451,7 +484,7 @@
     <numFmt numFmtId="166" formatCode="YYYY\年M\月;@"/>
     <numFmt numFmtId="167" formatCode="0.0\ "/>
     <numFmt numFmtId="168" formatCode="0\ ;[RED]\(0\)"/>
-    <numFmt numFmtId="169" formatCode="jewishDDDD;@"/>
+    <numFmt numFmtId="169" formatCode="\jE&quot;wi&quot;SHDDDD;@"/>
     <numFmt numFmtId="170" formatCode="0.0\ ;[RED]\(0.0\)"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
@@ -461,6 +494,7 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -482,6 +516,7 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -489,18 +524,21 @@
       <color rgb="FF800000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF800000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -508,6 +546,7 @@
       <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -515,12 +554,14 @@
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -528,24 +569,28 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -553,6 +598,7 @@
       <color rgb="FF800000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -560,6 +606,7 @@
       <color rgb="FF800000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -567,6 +614,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -574,12 +622,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -587,6 +637,7 @@
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -594,6 +645,7 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -602,6 +654,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -610,6 +663,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="double"/>
@@ -617,12 +671,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1094,6 +1150,17 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1164,8 +1231,8 @@
   </sheetPr>
   <dimension ref="1:42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y24" activeCellId="0" sqref="Y24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y26" activeCellId="0" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25"/>
@@ -1282,7 +1349,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="15" t="n">
         <f aca="true">TODAY()</f>
-        <v>43155</v>
+        <v>43158</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
@@ -4385,7 +4452,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="22" t="n">
         <f aca="false">Y42</f>
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
@@ -23140,29 +23207,47 @@
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="39"/>
+      <c r="K24" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="39"/>
+      <c r="M24" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N24" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P24" s="40"/>
+      <c r="P24" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q24" s="29"/>
-      <c r="R24" s="37"/>
+      <c r="R24" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="40"/>
-      <c r="U24" s="39"/>
+      <c r="T24" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U24" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W24" s="40"/>
+      <c r="W24" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="X24" s="29"/>
-      <c r="Y24" s="41"/>
+      <c r="Y24" s="41" t="n">
+        <v>9</v>
+      </c>
       <c r="Z24" s="0"/>
       <c r="AA24" s="0"/>
       <c r="AB24" s="0"/>
@@ -24194,18 +24279,28 @@
       </c>
       <c r="P25" s="40"/>
       <c r="Q25" s="29"/>
-      <c r="R25" s="37"/>
+      <c r="R25" s="37" t="n">
+        <v>17</v>
+      </c>
       <c r="S25" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T25" s="40"/>
-      <c r="U25" s="39"/>
+      <c r="T25" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V25" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W25" s="40"/>
+      <c r="W25" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X25" s="29"/>
-      <c r="Y25" s="41"/>
+      <c r="Y25" s="41" t="n">
+        <v>5.5</v>
+      </c>
       <c r="Z25" s="0"/>
       <c r="AA25" s="0"/>
       <c r="AB25" s="0"/>
@@ -25237,18 +25332,29 @@
       </c>
       <c r="P26" s="40"/>
       <c r="Q26" s="29"/>
-      <c r="R26" s="37"/>
+      <c r="R26" s="37" t="n">
+        <v>17</v>
+      </c>
       <c r="S26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T26" s="40"/>
-      <c r="U26" s="39"/>
+      <c r="T26" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U26" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W26" s="40"/>
+      <c r="W26" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X26" s="29"/>
-      <c r="Y26" s="41"/>
+      <c r="Y26" s="41" t="n">
+        <f aca="false">(U26-R26+N26-K26+G26-AA29)+0.5*(W26+P26+I26-T26-M26-F26)</f>
+        <v>6</v>
+      </c>
       <c r="Z26" s="0"/>
       <c r="AA26" s="0"/>
       <c r="AB26" s="0"/>
@@ -39908,7 +40014,7 @@
       <c r="X42" s="63"/>
       <c r="Y42" s="65" t="n">
         <f aca="false">SUM(Y10:Y40)</f>
-        <v>13.5</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/附件1-1【实习生】实习生考勤表-时薪_张宇精 (copy).xlsx
+++ b/附件1-1【实习生】实习生考勤表-时薪_张宇精 (copy).xlsx
@@ -39,6 +39,17 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'考勤表-时薪'!$A$2:$Y$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -1231,11 +1242,11 @@
   </sheetPr>
   <dimension ref="1:42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y26" activeCellId="0" sqref="Y26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="38.25"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.3765182186235"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.4210526315789"/>
@@ -1349,7 +1360,7 @@
       <c r="V3" s="14"/>
       <c r="W3" s="15" t="n">
         <f aca="true">TODAY()</f>
-        <v>43158</v>
+        <v>43170</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
@@ -4452,7 +4463,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="22" t="n">
         <f aca="false">Y42</f>
-        <v>34</v>
+        <v>132.5</v>
       </c>
       <c r="X6" s="22"/>
       <c r="Y6" s="22"/>
@@ -26364,40 +26375,67 @@
         <v>43138</v>
       </c>
       <c r="C27" s="36"/>
-      <c r="D27" s="45"/>
+      <c r="D27" s="45" t="n">
+        <v>9</v>
+      </c>
       <c r="E27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="40"/>
+      <c r="I27" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" s="29"/>
-      <c r="K27" s="39"/>
+      <c r="K27" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="39"/>
+      <c r="M27" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N27" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="40"/>
+      <c r="P27" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q27" s="29"/>
-      <c r="R27" s="37"/>
+      <c r="R27" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T27" s="40"/>
-      <c r="U27" s="39"/>
+      <c r="T27" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U27" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W27" s="40"/>
+      <c r="W27" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X27" s="29"/>
-      <c r="Y27" s="41"/>
+      <c r="Y27" s="41" t="n">
+        <f aca="false">(U27-R27+N27-K27+G27-D27)+0.5*(W27+P27+I27-T27-M27-F27)/60</f>
+        <v>13.5</v>
+      </c>
       <c r="Z27" s="0"/>
       <c r="AA27" s="0"/>
       <c r="AB27" s="0"/>
@@ -28450,40 +28488,66 @@
         <v>43140</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="45"/>
+      <c r="D29" s="45" t="n">
+        <v>9</v>
+      </c>
       <c r="E29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G29" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" s="29"/>
-      <c r="K29" s="39"/>
+      <c r="K29" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="39"/>
+      <c r="M29" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N29" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="40"/>
+      <c r="P29" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q29" s="29"/>
-      <c r="R29" s="37"/>
+      <c r="R29" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="40"/>
-      <c r="U29" s="39"/>
+      <c r="T29" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U29" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V29" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W29" s="40"/>
+      <c r="W29" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="X29" s="29"/>
-      <c r="Y29" s="41"/>
+      <c r="Y29" s="41" t="n">
+        <v>13</v>
+      </c>
       <c r="Z29" s="0"/>
       <c r="AA29" s="0"/>
       <c r="AB29" s="0"/>
@@ -29493,40 +29557,66 @@
         <v>43141</v>
       </c>
       <c r="C30" s="36"/>
-      <c r="D30" s="42"/>
+      <c r="D30" s="42" t="n">
+        <v>10</v>
+      </c>
       <c r="E30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="40"/>
+      <c r="I30" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" s="29"/>
-      <c r="K30" s="39"/>
+      <c r="K30" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="39"/>
+      <c r="M30" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N30" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P30" s="40"/>
+      <c r="P30" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q30" s="29"/>
-      <c r="R30" s="37"/>
+      <c r="R30" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T30" s="40"/>
-      <c r="U30" s="39"/>
+      <c r="T30" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U30" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W30" s="40"/>
+      <c r="W30" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X30" s="29"/>
-      <c r="Y30" s="41"/>
+      <c r="Y30" s="41" t="n">
+        <v>11</v>
+      </c>
       <c r="Z30" s="0"/>
       <c r="AA30" s="0"/>
       <c r="AB30" s="0"/>
@@ -30536,40 +30626,66 @@
         <v>43121</v>
       </c>
       <c r="C31" s="36"/>
-      <c r="D31" s="45"/>
+      <c r="D31" s="45" t="n">
+        <v>10</v>
+      </c>
       <c r="E31" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="39"/>
+      <c r="F31" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" s="29"/>
-      <c r="K31" s="39"/>
+      <c r="K31" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="39"/>
+      <c r="M31" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="40"/>
+      <c r="P31" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q31" s="29"/>
-      <c r="R31" s="37"/>
+      <c r="R31" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T31" s="40"/>
-      <c r="U31" s="39"/>
+      <c r="T31" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U31" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V31" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W31" s="40"/>
+      <c r="W31" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X31" s="29"/>
-      <c r="Y31" s="41"/>
+      <c r="Y31" s="41" t="n">
+        <v>11</v>
+      </c>
       <c r="Z31" s="0"/>
       <c r="AA31" s="0"/>
       <c r="AB31" s="0"/>
@@ -31601,18 +31717,28 @@
       </c>
       <c r="P32" s="40"/>
       <c r="Q32" s="29"/>
-      <c r="R32" s="37"/>
+      <c r="R32" s="37" t="n">
+        <v>17</v>
+      </c>
       <c r="S32" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T32" s="40"/>
-      <c r="U32" s="39"/>
+      <c r="T32" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V32" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W32" s="40"/>
+      <c r="W32" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X32" s="29"/>
-      <c r="Y32" s="41"/>
+      <c r="Y32" s="41" t="n">
+        <v>5.5</v>
+      </c>
       <c r="Z32" s="0"/>
       <c r="AA32" s="0"/>
       <c r="AB32" s="0"/>
@@ -32644,18 +32770,28 @@
       </c>
       <c r="P33" s="40"/>
       <c r="Q33" s="29"/>
-      <c r="R33" s="37"/>
+      <c r="R33" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S33" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="40"/>
-      <c r="U33" s="39"/>
+      <c r="T33" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U33" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V33" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W33" s="40"/>
+      <c r="W33" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X33" s="29"/>
-      <c r="Y33" s="41"/>
+      <c r="Y33" s="41" t="n">
+        <v>4</v>
+      </c>
       <c r="Z33" s="0"/>
       <c r="AA33" s="0"/>
       <c r="AB33" s="0"/>
@@ -33687,18 +33823,28 @@
       </c>
       <c r="P34" s="40"/>
       <c r="Q34" s="29"/>
-      <c r="R34" s="37"/>
+      <c r="R34" s="37" t="n">
+        <v>19</v>
+      </c>
       <c r="S34" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T34" s="40"/>
-      <c r="U34" s="39"/>
+      <c r="T34" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V34" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="40"/>
+      <c r="W34" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X34" s="29"/>
-      <c r="Y34" s="41"/>
+      <c r="Y34" s="41" t="n">
+        <v>4.5</v>
+      </c>
       <c r="Z34" s="0"/>
       <c r="AA34" s="0"/>
       <c r="AB34" s="0"/>
@@ -34730,18 +34876,28 @@
       </c>
       <c r="P35" s="40"/>
       <c r="Q35" s="29"/>
-      <c r="R35" s="37"/>
+      <c r="R35" s="37" t="n">
+        <v>17</v>
+      </c>
       <c r="S35" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T35" s="40"/>
-      <c r="U35" s="39"/>
+      <c r="T35" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U35" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V35" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W35" s="40"/>
+      <c r="W35" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X35" s="29"/>
-      <c r="Y35" s="41"/>
+      <c r="Y35" s="41" t="n">
+        <v>6</v>
+      </c>
       <c r="Z35" s="0"/>
       <c r="AA35" s="0"/>
       <c r="AB35" s="0"/>
@@ -35773,18 +35929,28 @@
       </c>
       <c r="P36" s="40"/>
       <c r="Q36" s="29"/>
-      <c r="R36" s="37"/>
+      <c r="R36" s="37" t="n">
+        <v>16</v>
+      </c>
       <c r="S36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T36" s="40"/>
-      <c r="U36" s="39"/>
+      <c r="T36" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U36" s="39" t="n">
+        <v>23</v>
+      </c>
       <c r="V36" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W36" s="40"/>
+      <c r="W36" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X36" s="29"/>
-      <c r="Y36" s="41"/>
+      <c r="Y36" s="41" t="n">
+        <v>7</v>
+      </c>
       <c r="Z36" s="0"/>
       <c r="AA36" s="0"/>
       <c r="AB36" s="0"/>
@@ -36794,40 +36960,66 @@
         <v>43127</v>
       </c>
       <c r="C37" s="36"/>
-      <c r="D37" s="45"/>
+      <c r="D37" s="45" t="n">
+        <v>10</v>
+      </c>
       <c r="E37" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="46" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" s="29"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="40"/>
-      <c r="N37" s="39"/>
+      <c r="M37" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N37" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="40"/>
+      <c r="P37" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q37" s="29"/>
-      <c r="R37" s="37"/>
+      <c r="R37" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="40"/>
-      <c r="U37" s="39"/>
+      <c r="T37" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U37" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W37" s="40"/>
+      <c r="W37" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X37" s="29"/>
-      <c r="Y37" s="41"/>
+      <c r="Y37" s="41" t="n">
+        <v>11</v>
+      </c>
       <c r="Z37" s="0"/>
       <c r="AA37" s="0"/>
       <c r="AB37" s="0"/>
@@ -37837,40 +38029,66 @@
         <v>43128</v>
       </c>
       <c r="C38" s="36"/>
-      <c r="D38" s="42"/>
+      <c r="D38" s="42" t="n">
+        <v>9</v>
+      </c>
       <c r="E38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="39"/>
+      <c r="F38" s="43" t="n">
+        <v>30</v>
+      </c>
+      <c r="G38" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="H38" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" s="29"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="39" t="n">
+        <v>12</v>
+      </c>
       <c r="L38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="39"/>
+      <c r="M38" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N38" s="39" t="n">
+        <v>18</v>
+      </c>
       <c r="O38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P38" s="40"/>
+      <c r="P38" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q38" s="29"/>
-      <c r="R38" s="37"/>
+      <c r="R38" s="37" t="n">
+        <v>18</v>
+      </c>
       <c r="S38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T38" s="40"/>
-      <c r="U38" s="39"/>
+      <c r="T38" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="U38" s="39" t="n">
+        <v>22</v>
+      </c>
       <c r="V38" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="W38" s="40"/>
+      <c r="W38" s="40" t="n">
+        <v>30</v>
+      </c>
       <c r="X38" s="29"/>
-      <c r="Y38" s="41"/>
+      <c r="Y38" s="41" t="n">
+        <v>12</v>
+      </c>
       <c r="Z38" s="0"/>
       <c r="AA38" s="0"/>
       <c r="AB38" s="0"/>
@@ -40014,7 +40232,7 @@
       <c r="X42" s="63"/>
       <c r="Y42" s="65" t="n">
         <f aca="false">SUM(Y10:Y40)</f>
-        <v>34</v>
+        <v>132.5</v>
       </c>
     </row>
   </sheetData>
